--- a/OC_Andres_FI1221_FF1224.xlsx
+++ b/OC_Andres_FI1221_FF1224.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35AE87B-730B-4B05-B411-BC318DC4A052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A771B56-3D81-4982-9AEC-AD8B4288CBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -101,7 +101,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,15 +404,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G767"/>
+  <dimension ref="A1:G768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A741" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
+      <selection activeCell="H768" sqref="H768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -448,9 +450,6 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
         <v>462</v>
       </c>
@@ -472,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>461.64</v>
@@ -495,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>450.73</v>
@@ -610,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>468.15</v>
@@ -633,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>469.23</v>
@@ -840,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>468.75</v>
@@ -863,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>472.06</v>
@@ -909,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>476.98</v>
@@ -978,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>476.3</v>
@@ -1001,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>479.22</v>
@@ -1024,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>477.16</v>
@@ -1162,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>472.19</v>
@@ -1185,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>461.19</v>
@@ -1254,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>453.75</v>
@@ -1323,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>433.06</v>
@@ -1714,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>443.22</v>
@@ -1829,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>429.61</v>
@@ -1990,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>419.62</v>
@@ -2013,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>425.14</v>
@@ -2404,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>453.31</v>
@@ -2427,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>453.13</v>
@@ -2450,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
         <v>455.22</v>
@@ -2496,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>445.59</v>
@@ -2519,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>447.97</v>
@@ -2588,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>438.03</v>
@@ -2611,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
         <v>443.55</v>
@@ -2634,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>436.81</v>
@@ -2703,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <v>448.54</v>
@@ -2726,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>436.91</v>
@@ -3347,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
         <v>415.17</v>
@@ -3370,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
         <v>409.42</v>
@@ -3462,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
         <v>413.93</v>
@@ -3485,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>409.34</v>
@@ -3554,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
         <v>376.85</v>
@@ -3577,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>377.36</v>
@@ -3922,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
         <v>387.27</v>
@@ -3945,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <v>385.85</v>
@@ -4290,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
         <v>409.15</v>
@@ -4313,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
         <v>409.12</v>
@@ -4405,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
         <v>415.25</v>
@@ -4451,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
         <v>418.78</v>
@@ -4520,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
         <v>424.76499999999999</v>
@@ -4543,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
         <v>427.73</v>
@@ -4658,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
         <v>412.9</v>
@@ -4681,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
         <v>412.11</v>
@@ -5026,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
         <v>392.96</v>
@@ -5049,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <v>384.14</v>
@@ -5417,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
         <v>363.96</v>
@@ -5440,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
         <v>358.23500000000001</v>
@@ -5463,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
         <v>358.17</v>
@@ -5532,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
         <v>364.01</v>
@@ -5716,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>383.07</v>
@@ -5739,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
         <v>379.87</v>
@@ -5762,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
         <v>386.44</v>
@@ -5785,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
         <v>390.14</v>
@@ -5831,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
         <v>371.46499999999997</v>
@@ -5877,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <v>377.71</v>
@@ -5923,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
         <v>379.93</v>
@@ -5946,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
         <v>388.05</v>
@@ -6314,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
         <v>403.95</v>
@@ -6360,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="E259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F259">
         <v>392.94</v>
@@ -6383,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260">
         <v>395.14</v>
@@ -6406,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="E261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F261">
         <v>394.94</v>
@@ -6521,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F266">
         <v>385.18</v>
@@ -6567,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="E268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F268">
         <v>379.23</v>
@@ -6774,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277">
         <v>383.18</v>
@@ -6797,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F278">
         <v>381.72</v>
@@ -6866,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F281">
         <v>387.25</v>
@@ -6912,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F283">
         <v>396.67</v>
@@ -6935,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284">
         <v>393.62</v>
@@ -6981,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="E286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F286">
         <v>399.01</v>
@@ -7510,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F309">
         <v>403.06</v>
@@ -7533,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F310">
         <v>399.52</v>
@@ -7717,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318">
         <v>405.05</v>
@@ -7763,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="E320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F320">
         <v>398.39</v>
@@ -8131,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="E336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F336">
         <v>404.09</v>
@@ -8177,7 +8176,7 @@
         <v>1</v>
       </c>
       <c r="E338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F338">
         <v>408.85</v>
@@ -8223,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="E340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F340">
         <v>407.91</v>
@@ -8246,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="E341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F341">
         <v>406.77</v>
@@ -8292,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F343">
         <v>410.26</v>
@@ -8338,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="E345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F345">
         <v>409.18</v>
@@ -8361,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F346">
         <v>412.81</v>
@@ -8384,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="E347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F347">
         <v>412.37</v>
@@ -8407,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F348">
         <v>415.58</v>
@@ -8430,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="E349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F349">
         <v>412.22</v>
@@ -9097,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="E378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F378">
         <v>418.28</v>
@@ -9120,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="E379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F379">
         <v>418.09</v>
@@ -9212,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F383">
         <v>428.44</v>
@@ -9235,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="E384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F384">
         <v>426.62</v>
@@ -9258,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="E385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F385">
         <v>429.96</v>
@@ -9281,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="E386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F386">
         <v>430.92</v>
@@ -9419,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="E392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F392">
         <v>436.16</v>
@@ -9465,7 +9464,7 @@
         <v>1</v>
       </c>
       <c r="E394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F394">
         <v>432.93</v>
@@ -10132,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F423">
         <v>450.72</v>
@@ -10155,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="E424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F424">
         <v>448.71</v>
@@ -10224,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="E427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F427">
         <v>448.19</v>
@@ -10247,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="E428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F428">
         <v>443.97</v>
@@ -10316,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="E431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F431">
         <v>442.46</v>
@@ -10339,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="E432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F432">
         <v>441.16</v>
@@ -10523,7 +10522,7 @@
         <v>1</v>
       </c>
       <c r="E440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F440">
         <v>442.65</v>
@@ -10661,7 +10660,7 @@
         <v>1</v>
       </c>
       <c r="E446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F446">
         <v>443.11</v>
@@ -10891,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="E456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F456">
         <v>435.7</v>
@@ -10914,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="E457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F457">
         <v>432.45</v>
@@ -11374,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="E477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F477">
         <v>425.98</v>
@@ -11397,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="E478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F478">
         <v>419.61</v>
@@ -11650,7 +11649,7 @@
         <v>1</v>
       </c>
       <c r="E489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F489">
         <v>435.69</v>
@@ -11696,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="E491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F491">
         <v>438.43</v>
@@ -12248,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="E515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F515">
         <v>472.5</v>
@@ -12317,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="E518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F518">
         <v>472.53</v>
@@ -12409,7 +12408,7 @@
         <v>1</v>
       </c>
       <c r="E522">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F522">
         <v>474.07</v>
@@ -12432,7 +12431,7 @@
         <v>1</v>
       </c>
       <c r="E523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F523">
         <v>475.44</v>
@@ -12524,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="E527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F527">
         <v>470.43</v>
@@ -12547,7 +12546,7 @@
         <v>0</v>
       </c>
       <c r="E528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F528">
         <v>468.3</v>
@@ -12570,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="E529">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F529">
         <v>467.49</v>
@@ -12616,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="E531">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F531">
         <v>471.87</v>
@@ -12639,7 +12638,7 @@
         <v>1</v>
       </c>
       <c r="E532">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F532">
         <v>474.16</v>
@@ -12662,7 +12661,7 @@
         <v>0</v>
       </c>
       <c r="E533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F533">
         <v>477.59</v>
@@ -12685,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="E534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F534">
         <v>477.84</v>
@@ -12731,7 +12730,7 @@
         <v>1</v>
       </c>
       <c r="E536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F536">
         <v>471.82</v>
@@ -12754,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="E537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F537">
         <v>474.01</v>
@@ -12777,7 +12776,7 @@
         <v>1</v>
       </c>
       <c r="E538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F538">
         <v>477.65</v>
@@ -13007,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="E548">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F548">
         <v>489.65</v>
@@ -13053,7 +13052,7 @@
         <v>1</v>
       </c>
       <c r="E550">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F550">
         <v>493.52</v>
@@ -13076,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="E551">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F551">
         <v>496.29</v>
@@ -13099,7 +13098,7 @@
         <v>1</v>
       </c>
       <c r="E552">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F552">
         <v>498.1</v>
@@ -13329,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="E562">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F562">
         <v>509.27</v>
@@ -13352,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="E563">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F563">
         <v>508.3</v>
@@ -13421,7 +13420,7 @@
         <v>1</v>
       </c>
       <c r="E566">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F566">
         <v>508.07</v>
@@ -13444,7 +13443,7 @@
         <v>1</v>
       </c>
       <c r="E567">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F567">
         <v>508.98</v>
@@ -13559,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="E572">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F572">
         <v>515.46</v>
@@ -13582,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="E573">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F573">
         <v>510.48</v>
@@ -13605,7 +13604,7 @@
         <v>1</v>
       </c>
       <c r="E574">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F574">
         <v>513.45000000000005</v>
@@ -13628,7 +13627,7 @@
         <v>0</v>
       </c>
       <c r="E575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F575">
         <v>517.11</v>
@@ -13743,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="E580">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F580">
         <v>515.77</v>
@@ -13812,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="E583">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F583">
         <v>519.79999999999995</v>
@@ -13835,7 +13834,7 @@
         <v>0</v>
       </c>
       <c r="E584">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F584">
         <v>521.23</v>
@@ -13927,7 +13926,7 @@
         <v>1</v>
       </c>
       <c r="E588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F588">
         <v>518.24</v>
@@ -14042,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="E593">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F593">
         <v>520.5</v>
@@ -14065,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="E594">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F594">
         <v>513.48</v>
@@ -14111,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="E596">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F596">
         <v>514.37</v>
@@ -14134,7 +14133,7 @@
         <v>0</v>
       </c>
       <c r="E597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F597">
         <v>515.13</v>
@@ -14226,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="E601">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F601">
         <v>499.44</v>
@@ -14249,7 +14248,7 @@
         <v>1</v>
       </c>
       <c r="E602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F602">
         <v>497.83</v>
@@ -14318,7 +14317,7 @@
         <v>1</v>
       </c>
       <c r="E605">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F605">
         <v>499.18</v>
@@ -14341,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="E606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F606">
         <v>506.35</v>
@@ -14387,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="E608">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F608">
         <v>508.56</v>
@@ -14433,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="E610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F610">
         <v>504.15</v>
@@ -14479,7 +14478,7 @@
         <v>1</v>
       </c>
       <c r="E612">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F612">
         <v>513.75</v>
@@ -14594,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="E617">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F617">
         <v>522.55999999999995</v>
@@ -14617,7 +14616,7 @@
         <v>1</v>
       </c>
       <c r="E618">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F618">
         <v>521.11</v>
@@ -14686,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="E621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F621">
         <v>528.80999999999995</v>
@@ -14824,7 +14823,7 @@
         <v>0</v>
       </c>
       <c r="E627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F627">
         <v>530.27</v>
@@ -14847,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="E628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F628">
         <v>525.67999999999995</v>
@@ -14916,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="E631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F631">
         <v>529.02</v>
@@ -14939,7 +14938,7 @@
         <v>1</v>
       </c>
       <c r="E632">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F632">
         <v>526.46</v>
@@ -14962,7 +14961,7 @@
         <v>1</v>
       </c>
       <c r="E633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F633">
         <v>530.77</v>
@@ -15031,7 +15030,7 @@
         <v>1</v>
       </c>
       <c r="E636">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F636">
         <v>533.17999999999995</v>
@@ -15100,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="E639">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F639">
         <v>543.15</v>
@@ -15123,7 +15122,7 @@
         <v>1</v>
       </c>
       <c r="E640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F640">
         <v>540.88</v>
@@ -15399,7 +15398,7 @@
         <v>1</v>
       </c>
       <c r="E652">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F652">
         <v>548.69000000000005</v>
@@ -15445,7 +15444,7 @@
         <v>0</v>
       </c>
       <c r="E654">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F654">
         <v>555.44000000000005</v>
@@ -15560,7 +15559,7 @@
         <v>0</v>
       </c>
       <c r="E659">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F659">
         <v>562.03</v>
@@ -15583,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="E660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F660">
         <v>562.86500000000001</v>
@@ -15606,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="E661">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F661">
         <v>558.79999999999995</v>
@@ -15629,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="E662">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F662">
         <v>558.51</v>
@@ -15652,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="E663">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F663">
         <v>552.41999999999996</v>
@@ -15675,7 +15674,7 @@
         <v>1</v>
       </c>
       <c r="E664">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F664">
         <v>553</v>
@@ -15744,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="E667">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F667">
         <v>541.35</v>
@@ -15790,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="E669">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F669">
         <v>546.02</v>
@@ -15813,7 +15812,7 @@
         <v>0</v>
       </c>
       <c r="E670">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F670">
         <v>546.26</v>
@@ -15836,7 +15835,7 @@
         <v>1</v>
       </c>
       <c r="E671">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F671">
         <v>548.98</v>
@@ -15859,7 +15858,7 @@
         <v>0</v>
       </c>
       <c r="E672">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F672">
         <v>552.57000000000005</v>
@@ -15905,7 +15904,7 @@
         <v>1</v>
       </c>
       <c r="E674">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F674">
         <v>511.64</v>
@@ -16043,7 +16042,7 @@
         <v>1</v>
       </c>
       <c r="E680">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F680">
         <v>536.53</v>
@@ -16089,7 +16088,7 @@
         <v>1</v>
       </c>
       <c r="E682">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F682">
         <v>549.5</v>
@@ -16158,7 +16157,7 @@
         <v>0</v>
       </c>
       <c r="E685">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F685">
         <v>559.15</v>
@@ -16181,7 +16180,7 @@
         <v>1</v>
       </c>
       <c r="E686">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F686">
         <v>559.77</v>
@@ -16204,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="E687">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F687">
         <v>562.55999999999995</v>
@@ -16227,7 +16226,7 @@
         <v>1</v>
       </c>
       <c r="E688">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F688">
         <v>559.53</v>
@@ -16273,7 +16272,7 @@
         <v>1</v>
       </c>
       <c r="E690">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F690">
         <v>559.49</v>
@@ -16296,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="E691">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F691">
         <v>561.21</v>
@@ -16319,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="E692">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F692">
         <v>560.30999999999995</v>
@@ -16365,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="E694">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F694">
         <v>560.47</v>
@@ -16411,7 +16410,7 @@
         <v>0</v>
       </c>
       <c r="E696">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F696">
         <v>550.89</v>
@@ -16434,7 +16433,7 @@
         <v>0</v>
       </c>
       <c r="E697">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F697">
         <v>549.94000000000005</v>
@@ -16618,7 +16617,7 @@
         <v>0</v>
       </c>
       <c r="E705">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F705">
         <v>563.74</v>
@@ -16687,7 +16686,7 @@
         <v>1</v>
       </c>
       <c r="E708">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F708">
         <v>569.34</v>
@@ -16733,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="E710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F710">
         <v>571.14</v>
@@ -16825,7 +16824,7 @@
         <v>0</v>
       </c>
       <c r="E714">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F714">
         <v>573.4</v>
@@ -16871,7 +16870,7 @@
         <v>1</v>
       </c>
       <c r="E716">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F716">
         <v>567.36</v>
@@ -16894,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="E717">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F717">
         <v>572.35</v>
@@ -16940,7 +16939,7 @@
         <v>1</v>
       </c>
       <c r="E719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F719">
         <v>570.41999999999996</v>
@@ -16963,7 +16962,7 @@
         <v>1</v>
       </c>
       <c r="E720">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F720">
         <v>573.16</v>
@@ -17193,7 +17192,7 @@
         <v>0</v>
       </c>
       <c r="E730">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F730">
         <v>581.26</v>
@@ -17216,7 +17215,7 @@
         <v>0</v>
       </c>
       <c r="E731">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F731">
         <v>579.98</v>
@@ -17331,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="E736">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F736">
         <v>575.55999999999995</v>
@@ -17354,7 +17353,7 @@
         <v>0</v>
       </c>
       <c r="E737">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F737">
         <v>571.32000000000005</v>
@@ -17377,7 +17376,7 @@
         <v>0</v>
       </c>
       <c r="E738">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F738">
         <v>571.17999999999995</v>
@@ -17400,7 +17399,7 @@
         <v>1</v>
       </c>
       <c r="E739">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F739">
         <v>570.74</v>
@@ -17469,7 +17468,7 @@
         <v>1</v>
       </c>
       <c r="E742">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F742">
         <v>596.16999999999996</v>
@@ -17630,7 +17629,7 @@
         <v>1</v>
       </c>
       <c r="E749">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F749">
         <v>584.71</v>
@@ -17676,7 +17675,7 @@
         <v>1</v>
       </c>
       <c r="E751">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F751">
         <v>593.4</v>
@@ -17699,7 +17698,7 @@
         <v>1</v>
       </c>
       <c r="E752">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F752">
         <v>593.66</v>
@@ -17722,7 +17721,7 @@
         <v>0</v>
       </c>
       <c r="E753">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F753">
         <v>599.52</v>
@@ -17745,7 +17744,7 @@
         <v>1</v>
       </c>
       <c r="E754">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F754">
         <v>598.79999999999995</v>
@@ -17906,7 +17905,7 @@
         <v>1</v>
       </c>
       <c r="E761">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F761">
         <v>607.44000000000005</v>
@@ -17975,7 +17974,7 @@
         <v>1</v>
       </c>
       <c r="E764">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F764">
         <v>605.78</v>
@@ -17998,7 +17997,7 @@
         <v>0</v>
       </c>
       <c r="E765">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F765">
         <v>606.58000000000004</v>
@@ -18021,7 +18020,7 @@
         <v>0</v>
       </c>
       <c r="E766">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F766">
         <v>606.4</v>
@@ -18051,6 +18050,29 @@
       </c>
       <c r="G767">
         <v>606.79</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A768" s="1">
+        <v>766</v>
+      </c>
+      <c r="B768">
+        <v>3766</v>
+      </c>
+      <c r="C768" s="2">
+        <v>45643</v>
+      </c>
+      <c r="D768">
+        <v>1</v>
+      </c>
+      <c r="E768">
+        <v>1</v>
+      </c>
+      <c r="F768">
+        <v>604.19000000000005</v>
+      </c>
+      <c r="G768">
+        <v>604.29</v>
       </c>
     </row>
   </sheetData>
